--- a/N_xi Fits/Results (rho=0.7)/N_xi Fitted Parameters (rho=0.7, End Decay at Next Min).xlsx
+++ b/N_xi Fits/Results (rho=0.7)/N_xi Fitted Parameters (rho=0.7, End Decay at Next Min).xlsx
@@ -508,25 +508,25 @@
         <v>1184.326171875</v>
       </c>
       <c r="E2" t="n">
-        <v>24.2376996963271</v>
+        <v>24.23769969346263</v>
       </c>
       <c r="F2" t="n">
-        <v>1.407187610778119</v>
+        <v>1.407187609411179</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02046539228121126</v>
+        <v>0.02046539227879261</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001188175727426752</v>
+        <v>0.00118817572627256</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2989807340953313</v>
+        <v>0.2989807341206293</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01145837946662497</v>
+        <v>0.01145837945762759</v>
       </c>
       <c r="K2" t="n">
-        <v>9.21034566389678e-05</v>
+        <v>9.210345663896797e-05</v>
       </c>
     </row>
     <row r="3">
@@ -547,25 +547,25 @@
         <v>1571.923828125</v>
       </c>
       <c r="E3" t="n">
-        <v>28.18604764675655</v>
+        <v>28.18604763752651</v>
       </c>
       <c r="F3" t="n">
-        <v>1.175269807605836</v>
+        <v>1.175269808248408</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01793092460490088</v>
+        <v>0.01793092459902907</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0007476633323942321</v>
+        <v>0.0007476633328030129</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4762711958431699</v>
+        <v>0.4762711959619256</v>
       </c>
       <c r="J3" t="n">
-        <v>0.014365175166741</v>
+        <v>0.01436517518844836</v>
       </c>
       <c r="K3" t="n">
-        <v>7.069580935701461e-05</v>
+        <v>7.069580935701438e-05</v>
       </c>
     </row>
     <row r="4">
@@ -586,25 +586,25 @@
         <v>3213.83056640625</v>
       </c>
       <c r="E4" t="n">
-        <v>70.93218117611286</v>
+        <v>70.93218117189016</v>
       </c>
       <c r="F4" t="n">
-        <v>1.003720639166573</v>
+        <v>1.003720639002675</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02207091497528142</v>
+        <v>0.0220709149739675</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0003123128672862636</v>
+        <v>0.000312312867235266</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2842474870727733</v>
+        <v>0.2842474870893207</v>
       </c>
       <c r="J4" t="n">
-        <v>0.00325562252620021</v>
+        <v>0.00325562252432788</v>
       </c>
       <c r="K4" t="n">
-        <v>2.179530652542693e-05</v>
+        <v>2.179530652542699e-05</v>
       </c>
     </row>
     <row r="5">
@@ -625,22 +625,22 @@
         <v>3714.4775390625</v>
       </c>
       <c r="E5" t="n">
-        <v>222.4005758828412</v>
+        <v>222.4005758854602</v>
       </c>
       <c r="F5" t="n">
-        <v>12.07947982316923</v>
+        <v>12.07947983517713</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05987398592238442</v>
+        <v>0.05987398592308948</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003251999694745222</v>
+        <v>0.003251999697977951</v>
       </c>
       <c r="I5" t="n">
-        <v>0.371268946512434</v>
+        <v>0.3712689465108365</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01327204380921741</v>
+        <v>0.01327204382887523</v>
       </c>
       <c r="K5" t="n">
         <v>0.001147968103713966</v>
@@ -664,25 +664,25 @@
         <v>1195.0927734375</v>
       </c>
       <c r="E6" t="n">
-        <v>28.08260074769169</v>
+        <v>28.08260074731292</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5853826164742398</v>
+        <v>0.5853826163916741</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02349826002789425</v>
+        <v>0.02349826002757732</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0004898219029393652</v>
+        <v>0.0004898219028702779</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2501244374149704</v>
+        <v>0.2501244374189307</v>
       </c>
       <c r="J6" t="n">
-        <v>0.004245292912904242</v>
+        <v>0.004245292911429383</v>
       </c>
       <c r="K6" t="n">
-        <v>2.47655042698072e-05</v>
+        <v>2.476550426980718e-05</v>
       </c>
     </row>
     <row r="7">
@@ -703,25 +703,25 @@
         <v>1566.54052734375</v>
       </c>
       <c r="E7" t="n">
-        <v>62.74475306388528</v>
+        <v>62.74475306493611</v>
       </c>
       <c r="F7" t="n">
-        <v>3.830001807736148</v>
+        <v>3.830001806883612</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04005306723234045</v>
+        <v>0.04005306723301125</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002444878853042096</v>
+        <v>0.00244487885249788</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2286175305364953</v>
+        <v>0.2286175305279358</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007956861025019701</v>
+        <v>0.007956861023939381</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001290408564833285</v>
+        <v>0.0001290408564833284</v>
       </c>
     </row>
     <row r="8">
@@ -742,25 +742,25 @@
         <v>3176.1474609375</v>
       </c>
       <c r="E8" t="n">
-        <v>61.57049867511664</v>
+        <v>61.57049867607989</v>
       </c>
       <c r="F8" t="n">
-        <v>1.023154268996816</v>
+        <v>1.023154268691456</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01938527711082499</v>
+        <v>0.01938527711112827</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0003221368911803652</v>
+        <v>0.0003221368910842233</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5675603666949802</v>
+        <v>0.5675603666866238</v>
       </c>
       <c r="J8" t="n">
-        <v>0.007377387980194543</v>
+        <v>0.007377387970508929</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001052866942662065</v>
+        <v>0.0001052866942662063</v>
       </c>
     </row>
     <row r="9">
@@ -781,22 +781,22 @@
         <v>3875.9765625</v>
       </c>
       <c r="E9" t="n">
-        <v>125.8258945755795</v>
+        <v>125.8258945806533</v>
       </c>
       <c r="F9" t="n">
-        <v>6.12759411285175</v>
+        <v>6.127594112499147</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03246301739616866</v>
+        <v>0.0324630173974777</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001580916193388811</v>
+        <v>0.00158091619329784</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2552796038300814</v>
+        <v>0.2552796038224187</v>
       </c>
       <c r="J9" t="n">
-        <v>0.007326907925023993</v>
+        <v>0.00732690792271747</v>
       </c>
       <c r="K9" t="n">
         <v>0.0001096001619285764</v>
@@ -820,25 +820,25 @@
         <v>1108.9599609375</v>
       </c>
       <c r="E10" t="n">
-        <v>28.56440380816178</v>
+        <v>28.56440381177087</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7290935862920505</v>
+        <v>0.7290935867891218</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02575783149466804</v>
+        <v>0.02575783149792253</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0006574570876983552</v>
+        <v>0.0006574570881465872</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4177006107373624</v>
+        <v>0.4177006106866832</v>
       </c>
       <c r="J10" t="n">
-        <v>0.009079533661147122</v>
+        <v>0.009079533666430526</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0001269530199404095</v>
+        <v>0.0001269530199404096</v>
       </c>
     </row>
     <row r="11">
@@ -859,25 +859,25 @@
         <v>1620.37353515625</v>
       </c>
       <c r="E11" t="n">
-        <v>29.66978435835737</v>
+        <v>29.66978436317344</v>
       </c>
       <c r="F11" t="n">
-        <v>1.788927411816067</v>
+        <v>1.788927414785268</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01831045972711246</v>
+        <v>0.01831045973008466</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001104021617857122</v>
+        <v>0.00110402161968954</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2095324064889676</v>
+        <v>0.2095324064659896</v>
       </c>
       <c r="J11" t="n">
-        <v>0.008319792369593362</v>
+        <v>0.008319792388965352</v>
       </c>
       <c r="K11" t="n">
-        <v>1.743359272888073e-05</v>
+        <v>1.743359272888068e-05</v>
       </c>
     </row>
     <row r="12">
@@ -898,22 +898,22 @@
         <v>2266.36962890625</v>
       </c>
       <c r="E12" t="n">
-        <v>43.45114219604086</v>
+        <v>43.45114219908624</v>
       </c>
       <c r="F12" t="n">
-        <v>1.081610148853985</v>
+        <v>1.081610150923048</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01917213398990454</v>
+        <v>0.01917213399124827</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00047724348890784</v>
+        <v>0.0004772434898207816</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2262732928953219</v>
+        <v>0.2262732928834556</v>
       </c>
       <c r="J12" t="n">
-        <v>0.003940197060348678</v>
+        <v>0.003940197068505037</v>
       </c>
       <c r="K12" t="n">
         <v>6.346772751188293e-06</v>
@@ -937,25 +937,25 @@
         <v>3133.0810546875</v>
       </c>
       <c r="E13" t="n">
-        <v>60.31837337107459</v>
+        <v>60.31837337480755</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9200003002461009</v>
+        <v>0.9200002993609266</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01925209476493766</v>
+        <v>0.01925209476612913</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0002936407594274204</v>
+        <v>0.0002936407591448953</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5323543626066591</v>
+        <v>0.5323543625768286</v>
       </c>
       <c r="J13" t="n">
-        <v>0.006119739855046917</v>
+        <v>0.006119739844796843</v>
       </c>
       <c r="K13" t="n">
-        <v>6.611623791637428e-05</v>
+        <v>6.611623791637417e-05</v>
       </c>
     </row>
     <row r="14">
@@ -976,25 +976,25 @@
         <v>1103.57666015625</v>
       </c>
       <c r="E14" t="n">
-        <v>26.43980975047124</v>
+        <v>26.43980975805638</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4512134950611211</v>
+        <v>0.4512134950848573</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02395829008084292</v>
+        <v>0.02395829008771615</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0004088646592047679</v>
+        <v>0.0004088646592262763</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5175744174827195</v>
+        <v>0.5175744173377306</v>
       </c>
       <c r="J14" t="n">
-        <v>0.007344858108329837</v>
+        <v>0.007344858100604028</v>
       </c>
       <c r="K14" t="n">
-        <v>8.282783749861377e-05</v>
+        <v>8.282783749861267e-05</v>
       </c>
     </row>
     <row r="15">
@@ -1015,25 +1015,25 @@
         <v>2287.90283203125</v>
       </c>
       <c r="E15" t="n">
-        <v>89.92146030479964</v>
+        <v>89.92146031672038</v>
       </c>
       <c r="F15" t="n">
-        <v>4.667905808846955</v>
+        <v>4.667905809187607</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03930300668624349</v>
+        <v>0.03930300669145383</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00204025526936504</v>
+        <v>0.002040255269513932</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2909832647075162</v>
+        <v>0.2909832646750952</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01056073597315272</v>
+        <v>0.01056073596716697</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0005555742833627678</v>
+        <v>0.000555574283362764</v>
       </c>
     </row>
     <row r="16">
@@ -1054,25 +1054,25 @@
         <v>2836.99951171875</v>
       </c>
       <c r="E16" t="n">
-        <v>95.95407443990167</v>
+        <v>95.95407444361173</v>
       </c>
       <c r="F16" t="n">
-        <v>1.314026144130241</v>
+        <v>1.314026143433189</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03382237961041081</v>
+        <v>0.03382237961171855</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0004631746106061751</v>
+        <v>0.0004631746103604748</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2190465317478708</v>
+        <v>0.2190465317427538</v>
       </c>
       <c r="J16" t="n">
-        <v>0.001831727512213831</v>
+        <v>0.001831727510227039</v>
       </c>
       <c r="K16" t="n">
-        <v>8.120176178652593e-06</v>
+        <v>8.120176178652589e-06</v>
       </c>
     </row>
     <row r="17">
@@ -1093,25 +1093,25 @@
         <v>3159.99755859375</v>
       </c>
       <c r="E17" t="n">
-        <v>52.51707840131855</v>
+        <v>52.51707840771365</v>
       </c>
       <c r="F17" t="n">
-        <v>1.343149788831624</v>
+        <v>1.343149789226007</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01661934144806412</v>
+        <v>0.01661934145008789</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0004250477299195594</v>
+        <v>0.0004250477300443646</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4463697544238729</v>
+        <v>0.4463697543742745</v>
       </c>
       <c r="J17" t="n">
-        <v>0.008645622752688579</v>
+        <v>0.008645622757950163</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001391832503642659</v>
+        <v>0.0001391832503642658</v>
       </c>
     </row>
   </sheetData>
